--- a/docs/commons-items-uk.xlsx
+++ b/docs/commons-items-uk.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\projects\grocery-agg\src_v2\RetailDataEngineeringUK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD6E8F-4686-4EAD-AB37-8826AE702786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1069A-58A6-4DB2-AABE-095A2CC2EDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D532577-8769-4A69-B167-84EA465242B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D532577-8769-4A69-B167-84EA465242B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
   <si>
     <t>Items to focus on</t>
   </si>
@@ -348,16 +349,166 @@
   </si>
   <si>
     <t>TOOTHBRUSHES</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Biscuits</t>
+  </si>
+  <si>
+    <t>Most popular foods v2</t>
+  </si>
+  <si>
+    <t>The Most Popular Shopping Items In The UK | Miller Food Service</t>
+  </si>
+  <si>
+    <t>Select 10 products for analysis</t>
+  </si>
+  <si>
+    <t>Own product vs Brand products at ALDI</t>
+  </si>
+  <si>
+    <t>Own product vs Brand products at ASDA</t>
+  </si>
+  <si>
+    <t>Own product vs Brand products at MORRISSONS</t>
+  </si>
+  <si>
+    <t>Price comparision between own and branded</t>
+  </si>
+  <si>
+    <t>Price comparision of items among self brands for aldi/morrissons/asda</t>
+  </si>
+  <si>
+    <r>
+      <t>compare brand</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in asda/morrissons/aldi</t>
+    </r>
+  </si>
+  <si>
+    <t>how does price vary according to dates in ASDA/ALDI/MORRISSONS</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Basket Price</t>
+  </si>
+  <si>
+    <t>make items basket using own brand for all three</t>
+  </si>
+  <si>
+    <t>Popular brands by catalogue in ASDA/ALDI/MORRISSONS</t>
+  </si>
+  <si>
+    <t>Brand Placement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,13 +531,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,97 +877,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCD1D25-EF7F-4093-8065-9E85A5186EEE}">
-  <dimension ref="C3:G15"/>
+  <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J13" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="J14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" location=":~:text=It%20shows%20the%20following%20in%20order%20of%20popularity%3A,7%20Fresh%20meat%20and%20fish%208%20Ready%20meals" display="https://www.millerfoodservice.co.uk/blog/the-most-popular-shopping-items-in-the-uk.html - :~:text=It%20shows%20the%20following%20in%20order%20of%20popularity%3A,7%20Fresh%20meat%20and%20fish%208%20Ready%20meals" xr:uid="{F71ABFE2-0449-49B5-A6EB-3ACDD9135A6E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84C2497-B2AB-46C7-B360-19964AF0AF44}">
+  <dimension ref="B2:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="67.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A724CE-677F-44CF-A745-16E1746954D3}">
   <dimension ref="A1:B100"/>
   <sheetViews>
